--- a/src/nlp/data/timing.xlsx
+++ b/src/nlp/data/timing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mandd/projects/sr2ml/src/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABBAFA-9463-BB4F-BC4C-88856F7CAE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961446F7-C6A7-8749-A84D-CF5E63CB7695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2600" windowWidth="27640" windowHeight="16940" xr2:uid="{DACEE053-E210-EA47-A06A-A2B28E1EDAC5}"/>
+    <workbookView xWindow="1460" yWindow="720" windowWidth="27640" windowHeight="20460" activeTab="1" xr2:uid="{DACEE053-E210-EA47-A06A-A2B28E1EDAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -37,23 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>2 years</t>
-  </si>
-  <si>
     <t>about 6 years ago </t>
   </si>
   <si>
-    <t>3 decades</t>
-  </si>
-  <si>
     <t>12:30 a.m. </t>
   </si>
   <si>
@@ -103,13 +94,94 @@
   </si>
   <si>
     <t>Test was performed on 9th October.</t>
+  </si>
+  <si>
+    <t>Friday morning</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Last week</t>
+  </si>
+  <si>
+    <t>Date expressions</t>
+  </si>
+  <si>
+    <t>Time expressions</t>
+  </si>
+  <si>
+    <t>Duration expression</t>
+  </si>
+  <si>
+    <t>Frequency expression</t>
+  </si>
+  <si>
+    <t>ten hours</t>
+  </si>
+  <si>
+    <t>last five months</t>
+  </si>
+  <si>
+    <t>every Friday</t>
+  </si>
+  <si>
+    <t>every four hours</t>
+  </si>
+  <si>
+    <t>every month</t>
+  </si>
+  <si>
+    <t>twice a year</t>
+  </si>
+  <si>
+    <t>four times a day</t>
+  </si>
+  <si>
+    <t>thrice a day</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>2 years ago</t>
+  </si>
+  <si>
+    <t>3 decades ago</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>12:00am</t>
+  </si>
+  <si>
+    <t>20 minutes ago</t>
+  </si>
+  <si>
+    <t>Monday afternoon</t>
+  </si>
+  <si>
+    <t>Thrusday evening</t>
+  </si>
+  <si>
+    <t>The event occurred twice a week</t>
+  </si>
+  <si>
+    <t>The event occurred last year</t>
+  </si>
+  <si>
+    <t>The event occurred 20 minutes ago</t>
+  </si>
+  <si>
+    <t>The event occurred yesterday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +192,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,11 +225,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,143 +553,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413FE4A8-E9DF-9C42-912D-6A69155FC669}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="213" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -611,52 +708,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8368A75C-43EC-9F46-A72B-809D1E08CC67}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
